--- a/master_data.xlsx
+++ b/master_data.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\Desktop\TCS XPLORE\l-d-admin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://accesshub-my.sharepoint.com/personal/mhameed_guidehouse_com/Documents/Desktop/Misbah A/personal_doc/l-d-admin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6D68E8-7556-48D0-8A11-366458F7C051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_6DC95663247935F1125466C974C4C3AC63617E9A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="batch details" sheetId="1" r:id="rId1"/>
-    <sheet name="course details" sheetId="2" r:id="rId2"/>
+    <sheet name="course details" sheetId="1" r:id="rId1"/>
+    <sheet name="batch details" sheetId="2" r:id="rId2"/>
     <sheet name="allocated courses" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -22,7 +22,91 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
+  <si>
+    <t>Course Type</t>
+  </si>
+  <si>
+    <t>Course Name</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Online/Offline</t>
+  </si>
+  <si>
+    <t>Image Url</t>
+  </si>
+  <si>
+    <t>Foundation</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>10 WEEKS`</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>https://www.google.com</t>
+  </si>
+  <si>
+    <t>CSS</t>
+  </si>
+  <si>
+    <t>https://google.com</t>
+  </si>
+  <si>
+    <t>Advanced</t>
+  </si>
+  <si>
+    <t>10WEEKS</t>
+  </si>
+  <si>
+    <t>www.googole.com</t>
+  </si>
+  <si>
+    <t>induction</t>
+  </si>
+  <si>
+    <t>JS</t>
+  </si>
+  <si>
+    <t>2 WEEKS</t>
+  </si>
+  <si>
+    <t>ONLINE</t>
+  </si>
+  <si>
+    <t>dfj fhjb</t>
+  </si>
+  <si>
+    <t>FYIHBHB</t>
+  </si>
+  <si>
+    <t>FHBFO</t>
+  </si>
+  <si>
+    <t>HBDFBLFJN</t>
+  </si>
+  <si>
+    <t>HFBKHBHB</t>
+  </si>
+  <si>
+    <t>FBKHBFQL</t>
+  </si>
+  <si>
+    <t>foundation</t>
+  </si>
+  <si>
+    <t>10 weeks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">online </t>
+  </si>
   <si>
     <t>Batch Name</t>
   </si>
@@ -30,113 +114,34 @@
     <t>Department</t>
   </si>
   <si>
-    <t>batch 1</t>
+    <t>frsher 23</t>
   </si>
   <si>
     <t>abs</t>
   </si>
   <si>
-    <t>batch 10</t>
-  </si>
-  <si>
-    <t>seas</t>
-  </si>
-  <si>
-    <t>batch 111</t>
-  </si>
-  <si>
-    <t>djq</t>
-  </si>
-  <si>
-    <t>batch 1022</t>
-  </si>
-  <si>
-    <t>djwjssb</t>
-  </si>
-  <si>
-    <t>batch 100000</t>
-  </si>
-  <si>
-    <t>batch 2000</t>
-  </si>
-  <si>
-    <t>batch 11100</t>
-  </si>
-  <si>
-    <t>fhhfb</t>
-  </si>
-  <si>
-    <t>Course Type</t>
-  </si>
-  <si>
-    <t>Course Name</t>
-  </si>
-  <si>
-    <t>Duration</t>
-  </si>
-  <si>
-    <t>Online/Offline</t>
-  </si>
-  <si>
-    <t>Image Url</t>
-  </si>
-  <si>
-    <t>Foundation</t>
-  </si>
-  <si>
-    <t>SQL</t>
-  </si>
-  <si>
-    <t>10 WEEKS`</t>
-  </si>
-  <si>
-    <t>Online</t>
-  </si>
-  <si>
-    <t>https://www.google.com</t>
-  </si>
-  <si>
-    <t>CSS</t>
-  </si>
-  <si>
-    <t>https://google.com</t>
-  </si>
-  <si>
-    <t>Advanced</t>
-  </si>
-  <si>
-    <t>10WEEKS</t>
-  </si>
-  <si>
-    <t>www.googole.com</t>
-  </si>
-  <si>
-    <t>induction</t>
-  </si>
-  <si>
-    <t>JS</t>
-  </si>
-  <si>
-    <t>2 WEEKS</t>
-  </si>
-  <si>
-    <t>ONLINE</t>
-  </si>
-  <si>
-    <t>dfj fhjb</t>
+    <t>ganga</t>
+  </si>
+  <si>
+    <t>sea</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -152,7 +157,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -175,13 +180,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -202,9 +225,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -242,9 +265,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -277,9 +300,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -312,9 +352,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -488,95 +545,163 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
         <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -586,129 +711,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -717,14 +755,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{254E6D04-180B-492D-B7B3-97FF83A01C90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/master_data.xlsx
+++ b/master_data.xlsx
@@ -1,163 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://accesshub-my.sharepoint.com/personal/mhameed_guidehouse_com/Documents/Desktop/Misbah A/personal_doc/l-d-admin/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_6DC95663247935F1125466C974C4C3AC63617E9A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="course details" sheetId="1" r:id="rId1"/>
-    <sheet name="batch details" sheetId="2" r:id="rId2"/>
-    <sheet name="allocated courses" sheetId="3" r:id="rId3"/>
+    <sheet name="course details" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="batch details" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="allocated courses" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
-  <si>
-    <t>Course Type</t>
-  </si>
-  <si>
-    <t>Course Name</t>
-  </si>
-  <si>
-    <t>Duration</t>
-  </si>
-  <si>
-    <t>Online/Offline</t>
-  </si>
-  <si>
-    <t>Image Url</t>
-  </si>
-  <si>
-    <t>Foundation</t>
-  </si>
-  <si>
-    <t>SQL</t>
-  </si>
-  <si>
-    <t>10 WEEKS`</t>
-  </si>
-  <si>
-    <t>Online</t>
-  </si>
-  <si>
-    <t>https://www.google.com</t>
-  </si>
-  <si>
-    <t>CSS</t>
-  </si>
-  <si>
-    <t>https://google.com</t>
-  </si>
-  <si>
-    <t>Advanced</t>
-  </si>
-  <si>
-    <t>10WEEKS</t>
-  </si>
-  <si>
-    <t>www.googole.com</t>
-  </si>
-  <si>
-    <t>induction</t>
-  </si>
-  <si>
-    <t>JS</t>
-  </si>
-  <si>
-    <t>2 WEEKS</t>
-  </si>
-  <si>
-    <t>ONLINE</t>
-  </si>
-  <si>
-    <t>dfj fhjb</t>
-  </si>
-  <si>
-    <t>FYIHBHB</t>
-  </si>
-  <si>
-    <t>FHBFO</t>
-  </si>
-  <si>
-    <t>HBDFBLFJN</t>
-  </si>
-  <si>
-    <t>HFBKHBHB</t>
-  </si>
-  <si>
-    <t>FBKHBFQL</t>
-  </si>
-  <si>
-    <t>foundation</t>
-  </si>
-  <si>
-    <t>10 weeks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">online </t>
-  </si>
-  <si>
-    <t>Batch Name</t>
-  </si>
-  <si>
-    <t>Department</t>
-  </si>
-  <si>
-    <t>frsher 23</t>
-  </si>
-  <si>
-    <t>abs</t>
-  </si>
-  <si>
-    <t>ganga</t>
-  </si>
-  <si>
-    <t>sea</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
       <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
       <sz val="11"/>
-      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -195,32 +86,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -544,164 +503,314 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Course Type</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Duration</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Online/Offline</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Image Url</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Foundation</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>SQL</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>10 WEEKS`</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.google.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Foundation</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>10 WEEKS`</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://google.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Advanced</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>10WEEKS</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>www.googole.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>induction</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>JS</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2 WEEKS</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ONLINE</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>dfj fhjb</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Foundation</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>JS</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>10 WEEKS`</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ONLINE</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>www.googole.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Foundation</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>JS</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>10 WEEKS`</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ONLINE</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>www.googole.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>FYIHBHB</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>FHBFO</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>HBDFBLFJN</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>HFBKHBHB</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>FBKHBFQL</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>foundation</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>FHBFO</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>10 weeks</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">online </t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://google.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>foundation</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>c++</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>online</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>vmnn.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>foundation</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>c++</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>online</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>vmnn.jpg</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -710,43 +819,137 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Batch Name</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>frsher 23</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>abs</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>frsher 23</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>abs</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ganga</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>sea</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Fresher</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>DM</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Fresher</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DM</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Fresher</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>abd</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Fresher</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>abd</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Fresher</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>abd</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Fresher</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>abd</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -755,12 +958,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
